--- a/docs/StructureDefinition-PASportServiceRequest.xlsx
+++ b/docs/StructureDefinition-PASportServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportServiceRequest.xlsx
+++ b/docs/StructureDefinition-PASportServiceRequest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="612">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1210,6 +1210,9 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
+    <t>此資料項目實作者可視實務專案需求只綁定以下slices中的任一值集。</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
   </si>
   <si>
@@ -1648,7 +1651,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/PractitionerRole-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/CareTeam-twcore|HealthcareService|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Patient-twcore|Device|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/RelatedPerson-twcore)
 </t>
   </si>
   <si>
@@ -2238,15 +2241,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.31640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2257,27 +2260,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="109.59375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.1015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.67578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="141.90625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="53.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7156,11 +7159,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -7196,10 +7201,10 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -7210,10 +7215,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7325,10 +7330,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7440,10 +7445,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7557,13 +7562,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="B46" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="C46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>20</v>
@@ -7626,7 +7631,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7676,13 +7681,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>20</v>
@@ -7745,7 +7750,7 @@
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7795,13 +7800,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>20</v>
@@ -7864,7 +7869,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7914,13 +7919,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>20</v>
@@ -7983,7 +7988,7 @@
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -8033,13 +8038,13 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>20</v>
@@ -8102,7 +8107,7 @@
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -8152,13 +8157,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>20</v>
@@ -8221,7 +8226,7 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -8271,13 +8276,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>20</v>
@@ -8340,7 +8345,7 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8390,10 +8395,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8505,10 +8510,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8622,10 +8627,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8670,7 +8675,7 @@
         <v>20</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>20</v>
@@ -8741,10 +8746,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8858,10 +8863,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8975,10 +8980,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9092,10 +9097,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9211,13 +9216,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>20</v>
@@ -9280,7 +9285,7 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -9330,10 +9335,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9445,10 +9450,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9562,10 +9567,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9610,7 +9615,7 @@
         <v>20</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>20</v>
@@ -9681,10 +9686,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9798,10 +9803,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9915,10 +9920,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10032,10 +10037,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10151,10 +10156,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10270,14 +10275,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10299,13 +10304,13 @@
         <v>179</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10334,10 +10339,10 @@
         <v>285</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10355,7 +10360,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10364,7 +10369,7 @@
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>101</v>
@@ -10373,24 +10378,24 @@
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10413,17 +10418,17 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10472,7 +10477,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10490,10 +10495,10 @@
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>20</v>
@@ -10504,10 +10509,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10530,13 +10535,13 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10587,7 +10592,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>89</v>
@@ -10602,31 +10607,31 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10645,13 +10650,13 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10702,7 +10707,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10717,31 +10722,31 @@
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10760,13 +10765,13 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10817,7 +10822,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10832,27 +10837,27 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10875,13 +10880,13 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10911,10 +10916,10 @@
         <v>285</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>20</v>
@@ -10932,7 +10937,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10953,25 +10958,25 @@
         <v>20</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10990,13 +10995,13 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11047,7 +11052,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11062,31 +11067,31 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11105,16 +11110,16 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11164,7 +11169,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11179,31 +11184,31 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11225,13 +11230,13 @@
         <v>179</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11260,10 +11265,10 @@
         <v>285</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
@@ -11281,7 +11286,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11296,16 +11301,16 @@
         <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>20</v>
@@ -11313,14 +11318,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11339,16 +11344,16 @@
         <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11398,7 +11403,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11413,16 +11418,16 @@
         <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>20</v>
@@ -11430,10 +11435,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11459,10 +11464,10 @@
         <v>179</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11492,10 +11497,10 @@
         <v>285</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>20</v>
@@ -11513,7 +11518,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11534,10 +11539,10 @@
         <v>20</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>20</v>
@@ -11545,10 +11550,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11571,13 +11576,13 @@
         <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11628,7 +11633,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11649,10 +11654,10 @@
         <v>20</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>20</v>
@@ -11660,10 +11665,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11689,13 +11694,13 @@
         <v>179</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11725,7 +11730,7 @@
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>20</v>
@@ -11743,7 +11748,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11758,16 +11763,16 @@
         <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>20</v>
@@ -11775,10 +11780,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11801,16 +11806,16 @@
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11860,7 +11865,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11875,16 +11880,16 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>20</v>
@@ -11892,10 +11897,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11918,13 +11923,13 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11975,7 +11980,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11990,13 +11995,13 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>20</v>
@@ -12007,14 +12012,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12033,16 +12038,16 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12092,7 +12097,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12107,13 +12112,13 @@
         <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>20</v>
@@ -12124,10 +12129,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12150,16 +12155,16 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12209,7 +12214,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12227,10 +12232,10 @@
         <v>20</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>20</v>
@@ -12241,14 +12246,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12270,16 +12275,16 @@
         <v>179</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>20</v>
@@ -12307,10 +12312,10 @@
         <v>285</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>20</v>
@@ -12328,7 +12333,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12346,24 +12351,24 @@
         <v>20</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12386,13 +12391,13 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12443,7 +12448,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12458,27 +12463,27 @@
         <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12504,10 +12509,10 @@
         <v>157</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12558,7 +12563,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12576,10 +12581,10 @@
         <v>20</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>20</v>
@@ -12590,10 +12595,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12616,16 +12621,16 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12675,7 +12680,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12690,13 +12695,13 @@
         <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-PASportServiceRequest.xlsx
+++ b/docs/StructureDefinition-PASportServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportServiceRequest.xlsx
+++ b/docs/StructureDefinition-PASportServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportServiceRequest.xlsx
+++ b/docs/StructureDefinition-PASportServiceRequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2241,15 +2241,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.31640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.1015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2260,27 +2260,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="109.59375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.1015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="108.3203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.4453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="73.67578125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="141.90625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="53.2421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.23046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="140.125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PASportServiceRequest.xlsx
+++ b/docs/StructureDefinition-PASportServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportServiceRequest.xlsx
+++ b/docs/StructureDefinition-PASportServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportServiceRequest.xlsx
+++ b/docs/StructureDefinition-PASportServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportServiceRequest.xlsx
+++ b/docs/StructureDefinition-PASportServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -596,7 +596,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -681,7 +681,7 @@
     <t>ServiceRequest.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>

--- a/docs/StructureDefinition-PASportServiceRequest.xlsx
+++ b/docs/StructureDefinition-PASportServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportServiceRequest.xlsx
+++ b/docs/StructureDefinition-PASportServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportServiceRequest.xlsx
+++ b/docs/StructureDefinition-PASportServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
